--- a/clustering configurations.xlsx
+++ b/clustering configurations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nammy\Desktop\fake-news-clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A254194-D331-4599-B2C2-4931D9348043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B91A4-60D1-4F69-AA39-2ADF9F3C2D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="best models with tuning" sheetId="2" r:id="rId1"/>
+    <sheet name="all models" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>feature</t>
   </si>
@@ -36,18 +37,12 @@
     <t xml:space="preserve">dimension reduction </t>
   </si>
   <si>
-    <t>Sillhouette score</t>
-  </si>
-  <si>
     <t>Calinski-Harabasz Index</t>
   </si>
   <si>
     <t>Davies-Bouldin Index</t>
   </si>
   <si>
-    <t>Random Index</t>
-  </si>
-  <si>
     <t>Homogeneity</t>
   </si>
   <si>
@@ -94,12 +89,37 @@
   </si>
   <si>
     <t>PCA(5)</t>
+  </si>
+  <si>
+    <t>kMeans (cosine)</t>
+  </si>
+  <si>
+    <t>Hyperparameters</t>
+  </si>
+  <si>
+    <t>dimensions = 4, sigma = 5</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>components=6</t>
+  </si>
+  <si>
+    <t>Rand Index</t>
+  </si>
+  <si>
+    <t>Silhouette score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -240,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,6 +316,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,26 +604,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645320E-9DF1-4666-9968-20761BD64459}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2.5680418999999999E-2</v>
+      </c>
+      <c r="F2" s="31">
+        <v>27.6998384856395</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6.1479438113778704</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0.72322454401838199</v>
+      </c>
+      <c r="I2" s="30">
+        <v>0.361897189797112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2.5680741E-2</v>
+      </c>
+      <c r="F3" s="31">
+        <v>27.708110164167099</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.1485545258487404</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0.72069689788884095</v>
+      </c>
+      <c r="I3" s="30">
+        <v>0.35821169559027199</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="30">
+        <v>2.5502354000000001E-2</v>
+      </c>
+      <c r="F4" s="31">
+        <v>27.592487943039799</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.1692086297194404</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0.718183613385035</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0.36087480743991801</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" customWidth="1"/>
-    <col min="2" max="2" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.921875" customWidth="1"/>
-    <col min="6" max="6" width="9.4609375" customWidth="1"/>
-    <col min="7" max="7" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.765625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.75">
+    <row r="1" spans="1:13" ht="45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -604,33 +776,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -653,16 +825,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>0.26648557</v>
@@ -680,18 +852,18 @@
         <v>0.41555319101864102</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29.15">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>0.12751798315311499</v>
@@ -709,18 +881,18 @@
         <v>0.25801970254949502</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.15">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>0.182101336986454</v>
@@ -738,18 +910,18 @@
         <v>0.32362564174432101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.75">
+    <row r="6" spans="1:13" ht="45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>1.9647899999999999E-2</v>
@@ -767,18 +939,18 @@
         <v>0.28017085889836102</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="44.15" thickBot="1">
+    <row r="7" spans="1:13" ht="45.75" thickBot="1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>1.4180923999999999E-2</v>
@@ -798,10 +970,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="14">
         <v>2</v>
@@ -825,16 +997,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="11">
         <v>0.24598971</v>
@@ -852,18 +1024,18 @@
         <v>0.32492532869138202</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29.6" thickBot="1">
+    <row r="10" spans="1:13" ht="30.75" thickBot="1">
       <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="23">
         <v>2</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="25">
         <v>9.5599664690303093E-2</v>
@@ -883,10 +1055,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -909,16 +1081,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>0.2844122</v>
@@ -936,18 +1108,18 @@
         <v>0.30965160200965802</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29.15">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
         <v>0.156017622441215</v>
@@ -965,18 +1137,18 @@
         <v>0.26945695043843998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.75">
+    <row r="14" spans="1:13" ht="45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>1.9601081999999999E-2</v>
@@ -997,10 +1169,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1024,10 +1196,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1051,16 +1223,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3">
         <v>0.41715124592242298</v>
@@ -1079,18 +1251,18 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="29.15">
+    <row r="18" spans="1:13" ht="30">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="28">
         <v>0.93353796363054498</v>
@@ -1109,18 +1281,18 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="43.75">
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3">
         <v>0.67606771526797305</v>
@@ -1139,18 +1311,18 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="43.75">
+    <row r="20" spans="1:13" ht="45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
         <v>-0.119608230586324</v>
@@ -1169,18 +1341,18 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="29.15">
+    <row r="21" spans="1:13" ht="30">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3">
         <v>0.63463214850062299</v>
@@ -1201,10 +1373,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1228,16 +1400,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3">
         <v>0.381600888438616</v>
@@ -1256,18 +1428,18 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="29.15">
+    <row r="24" spans="1:13" ht="30">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3">
         <v>0.21848074748455201</v>
@@ -1288,10 +1460,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1315,16 +1487,16 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3">
         <v>0.96059385008790799</v>
@@ -1343,18 +1515,18 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="29.15">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
         <v>0.96923199267666704</v>
@@ -1372,18 +1544,18 @@
         <v>1.8563080949087402E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.75">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
         <v>0.175525900654072</v>
